--- a/biology/Zoologie/Villy_Aellen/Villy_Aellen.xlsx
+++ b/biology/Zoologie/Villy_Aellen/Villy_Aellen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Villy Aellen, né à Neuchâtel le 4 décembre 1926 et mort le 22 janvier 2000, est un zoologiste suisse. Après des études en biologie dans sa ville natale, il voyage au Cameroun et s'y intéresse aux chauves-souris, sur lesquelles il passe sa thèse de doctorat en 1952. Il travaille au Muséum d'histoire naturelle de Genève à partir de 1954, et dirige l'institution de 1969 à 1989, quand Volker Mahnert lui succède. Il enseigne à l'Université de Genève durant 24 ans, et dirige la Revue suisse de Zoologie pendant 18 ans.
 </t>
@@ -511,13 +523,15 @@
           <t>Éponymies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom d'un minéral, la villyaellenite, lui est dédié, ainsi que celui de nombreuses espèces ou sous-espèces animales, dont :
-Acanthocreagris aelleni Mahnert, 1978[1]
+Acanthocreagris aelleni Mahnert, 1978
 Afrophiloscia aelleni Ferrara &amp; Taiti, 1982, désormais Anchiphiloscia aelleni (Ferrara &amp; Taiti, 1982)
 Amerioppia aelleni Mahunka, 1982, désormais Neoamerioppia aelleni (Mahunka, 1982)
-Armadillidium aelleni Caruso &amp; Ferrara, 1982[2]
+Armadillidium aelleni Caruso &amp; Ferrara, 1982
 Baldratia aelleni Möhn, 1969
 Biantes aelleni Silhavý, 1973
 Cryptops aelleni Demange, 1963
@@ -531,26 +545,26 @@
 Lepthyphantes aelleni Denis, 1957
 Leptometopa aelleni Papp, 1978
 Litomosa aelleni Tibayrenc, Bain &amp; Ramachandran, 1979
-Miniopterus aelleni Goodman, Weyeneth, Ibrahim, Saïd &amp; Ruedi, 2010[3]
+Miniopterus aelleni Goodman, Weyeneth, Ibrahim, Saïd &amp; Ruedi, 2010
 Molinostrongylus aelleni Durette-Desset &amp; Chabaud, 1975
-Myotis aelleni Baud, 1979[4], désormais synonymisé avec Myotis chiloensis Waterhouse, 1840[5]
+Myotis aelleni Baud, 1979, désormais synonymisé avec Myotis chiloensis Waterhouse, 1840
 Negroroncus aelleni Vachon, 1958
 Neobisium aelleni Vachon, 1976
-Nesticus aelleni Brignoli, 1972, désormais Nesticella aelleni (Brignoli, 1972)[6]
+Nesticus aelleni Brignoli, 1972, désormais Nesticella aelleni (Brignoli, 1972)
 Octodrilus aelleni Zicsi, 1979, désormais Octodriloides aelleni (Zicsi, 1979)
-Onychiurus antheuili aelleni Gisin, 1960[7], désormais Deuteraphorura antheuili aellenii (Gisin, 1960)
+Onychiurus antheuili aelleni Gisin, 1960, désormais Deuteraphorura antheuili aellenii (Gisin, 1960)
 Phyllomyza aelleni Papp, 1984
-Prosthodendrium aelleni Dubois, 1956[8]
+Prosthodendrium aelleni Dubois, 1956
 Pseudosinella aelleni da Gama, 1973
 Pyramidops aelleni Lawrence, 1958
 Scheloribates aelleni Mahunka, 1988, désormais Fijibates aelleni (Mahunka, 1988)
-Scydmaenus aelleni Besuchet, 1981[9]
+Scydmaenus aelleni Besuchet, 1981
 Strinatacarus aelleni Mahunka, 1977
 Synarmadillo aelleni Schmalfuss &amp; Ferrara, 1983
 Theridion aelleni Hubert, 1970, désormais Theridula aelleni (Hubert, 1970)
 Trachyjulus aelleni Mauriès, 1982
 Trogolaphysa aelleni Yoshii, 1988
-Troglosiro aelleni Juberthie, 1979[10]
+Troglosiro aelleni Juberthie, 1979
 Tropidauchen aelleni Dirsh, 1952, désormais Saxetania aelleni (Dirsh, 1952)
 Typhlothrombium aelleni Cooreman, 1954, désormais Charadracarus aelleni (Cooreman, 1954)
 </t>
